--- a/Excel-XLSX/UN-MCO.xlsx
+++ b/Excel-XLSX/UN-MCO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,88 @@
     <t>1</t>
   </si>
   <si>
-    <t>2wEXV7</t>
+    <t>JVz1go</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>IRQ</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
   </si>
   <si>
     <t>2011</t>
@@ -102,31 +183,19 @@
     <t>UKN</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>MCO</t>
+    <t>UNK</t>
   </si>
   <si>
     <t>37</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>11</t>
   </si>
   <si>
     <t>2012</t>
   </si>
   <si>
-    <t>3</t>
+    <t>12</t>
   </si>
   <si>
     <t>2013</t>
@@ -135,7 +204,7 @@
     <t>34</t>
   </si>
   <si>
-    <t>4</t>
+    <t>13</t>
   </si>
   <si>
     <t>2014</t>
@@ -144,7 +213,7 @@
     <t>33</t>
   </si>
   <si>
-    <t>5</t>
+    <t>14</t>
   </si>
   <si>
     <t>2015</t>
@@ -153,7 +222,7 @@
     <t>32</t>
   </si>
   <si>
-    <t>6</t>
+    <t>15</t>
   </si>
   <si>
     <t>2016</t>
@@ -162,7 +231,7 @@
     <t>27</t>
   </si>
   <si>
-    <t>7</t>
+    <t>16</t>
   </si>
   <si>
     <t>2017</t>
@@ -171,13 +240,13 @@
     <t>25</t>
   </si>
   <si>
-    <t>8</t>
+    <t>17</t>
   </si>
   <si>
     <t>2018</t>
   </si>
   <si>
-    <t>9</t>
+    <t>18</t>
   </si>
   <si>
     <t>2019</t>
@@ -186,64 +255,10 @@
     <t>22</t>
   </si>
   <si>
-    <t>10</t>
+    <t>19</t>
   </si>
   <si>
     <t>2020</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>Iraq</t>
-  </si>
-  <si>
-    <t>IRQ</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
   </si>
 </sst>
 </file>
@@ -628,7 +643,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V17"/>
+  <dimension ref="A1:V20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -730,45 +745,45 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -798,46 +813,46 @@
         <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="O3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -866,46 +881,46 @@
         <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="O4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5">
@@ -919,60 +934,60 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -987,61 +1002,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="J6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="O6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -1055,61 +1070,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="K7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8">
@@ -1123,60 +1138,60 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="K8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="O8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1191,61 +1206,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="K9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="O9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1259,61 +1274,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="O10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11">
@@ -1327,60 +1342,60 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="O11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1395,60 +1410,60 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="F12" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1463,60 +1478,60 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K13" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1531,60 +1546,60 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="J14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K14" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V14" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1599,60 +1614,60 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="J15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V15" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1667,60 +1682,60 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="J16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K16" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="L16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="V16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V16" s="1" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1735,60 +1750,264 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="2" t="s">
+      <c r="O18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T18" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="1" t="s">
+      <c r="L19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="K20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V20" s="1" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Excel-XLSX/UN-MCO.xlsx
+++ b/Excel-XLSX/UN-MCO.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>JVz1go</t>
+    <t>E2lb2R</t>
   </si>
   <si>
     <t>2021</t>
@@ -783,8 +783,8 @@
       <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1" t="s">
-        <v>33</v>
+      <c r="V2" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -987,8 +987,8 @@
       <c r="U5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V5" s="1" t="s">
-        <v>33</v>
+      <c r="V5" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6">
@@ -1191,8 +1191,8 @@
       <c r="U8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V8" s="1" t="s">
-        <v>33</v>
+      <c r="V8" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9">
@@ -1395,8 +1395,8 @@
       <c r="U11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>33</v>
+      <c r="V11" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="12">
@@ -1463,8 +1463,8 @@
       <c r="U12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V12" s="1" t="s">
-        <v>33</v>
+      <c r="V12" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="13">
@@ -1531,8 +1531,8 @@
       <c r="U13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V13" s="1" t="s">
-        <v>33</v>
+      <c r="V13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="14">
@@ -1599,8 +1599,8 @@
       <c r="U14" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V14" s="1" t="s">
-        <v>33</v>
+      <c r="V14" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="15">
@@ -1667,8 +1667,8 @@
       <c r="U15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>33</v>
+      <c r="V15" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="16">
@@ -1735,8 +1735,8 @@
       <c r="U16" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>33</v>
+      <c r="V16" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17">
@@ -1803,8 +1803,8 @@
       <c r="U17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>33</v>
+      <c r="V17" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18">
@@ -1871,8 +1871,8 @@
       <c r="U18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>33</v>
+      <c r="V18" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19">
@@ -1939,8 +1939,8 @@
       <c r="U19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V19" s="1" t="s">
-        <v>33</v>
+      <c r="V19" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20">
@@ -2007,8 +2007,8 @@
       <c r="U20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>33</v>
+      <c r="V20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MCO.xlsx
+++ b/Excel-XLSX/UN-MCO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -90,6 +90,114 @@
     <t>E2lb2R</t>
   </si>
   <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>Unknown </t>
+  </si>
+  <si>
+    <t>UKN</t>
+  </si>
+  <si>
+    <t>UNK</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>MCO</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>2021</t>
   </si>
   <si>
@@ -102,163 +210,64 @@
     <t>IRQ</t>
   </si>
   <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>Monaco</t>
-  </si>
-  <si>
-    <t>MCO</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>SRV</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>Syrian Arab Rep.</t>
+  </si>
+  <si>
+    <t>SYR</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
   <si>
     <t>2022</t>
   </si>
   <si>
-    <t>3</t>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
   </si>
   <si>
     <t>2023</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
-    <t>SRV</t>
-  </si>
-  <si>
-    <t>VNM</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>Syrian Arab Rep.</t>
-  </si>
-  <si>
-    <t>SYR</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>Unknown </t>
-  </si>
-  <si>
-    <t>UKN</t>
-  </si>
-  <si>
-    <t>UNK</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
     <t>18</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
     <t>19</t>
   </si>
   <si>
-    <t>2020</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
 </sst>
 </file>
@@ -643,7 +652,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V20"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -745,46 +754,46 @@
         <v>27</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
@@ -798,10 +807,10 @@
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -813,46 +822,46 @@
         <v>27</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4">
@@ -866,10 +875,10 @@
         <v>22</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>25</v>
@@ -881,46 +890,46 @@
         <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5">
@@ -934,61 +943,61 @@
         <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="O5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6">
@@ -1002,61 +1011,61 @@
         <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7">
@@ -1070,61 +1079,61 @@
         <v>22</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8">
@@ -1138,61 +1147,61 @@
         <v>22</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1206,61 +1215,61 @@
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10">
@@ -1274,61 +1283,61 @@
         <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11">
@@ -1342,61 +1351,61 @@
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12">
@@ -1410,61 +1419,61 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13">
@@ -1478,61 +1487,61 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>60</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14">
@@ -1546,61 +1555,61 @@
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15">
@@ -1614,61 +1623,61 @@
         <v>22</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V15" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16">
@@ -1682,61 +1691,61 @@
         <v>22</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="J16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>70</v>
+        <v>49</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17">
@@ -1750,61 +1759,61 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="H17" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="I17" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
@@ -1818,61 +1827,61 @@
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
@@ -1886,61 +1895,61 @@
         <v>22</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="V19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20">
@@ -1954,61 +1963,265 @@
         <v>22</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="K21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="L21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="N20" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V20" s="2" t="s">
-        <v>32</v>
+      <c r="L22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V23" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Excel-XLSX/UN-MCO.xlsx
+++ b/Excel-XLSX/UN-MCO.xlsx
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>E2lb2R</t>
+    <t>iJky7F</t>
   </si>
   <si>
     <t>2011</t>
